--- a/R/data/MW241118.xlsx
+++ b/R/data/MW241118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F6273A-CD09-F547-90D0-724C5B57FFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D8A27A-5EE0-4546-9F64-3D60E1794621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="2900" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,88 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="H72" authorId="0" shapeId="0" xr:uid="{FEBB3900-31F4-6D43-9F53-CF0E8750E053}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I72" authorId="0" shapeId="0" xr:uid="{188A7FE4-6B6C-CB46-99A5-71A870FA1BDB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K72" authorId="0" shapeId="0" xr:uid="{F7F455F2-8FD7-CA43-9DFD-2EADBB5D76EC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L72" authorId="0" shapeId="0" xr:uid="{B7D335D0-C959-6F46-AFEF-5E25263D80DB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O72" authorId="0" shapeId="0" xr:uid="{DB6301A7-C551-9447-8E0A-66205C860A92}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="390">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -494,9 +574,6 @@
     <t>이민석</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>이미진</t>
   </si>
   <si>
@@ -569,15 +646,6 @@
     <t>김태희</t>
   </si>
   <si>
-    <t>kwonseoyoung0923@gmail.com</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>권서영</t>
-  </si>
-  <si>
     <t>hsjenny99@gmail.com</t>
   </si>
   <si>
@@ -660,6 +728,552 @@
   </si>
   <si>
     <t>박준형</t>
+  </si>
+  <si>
+    <t>ggamy3637@naver.com</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>최효윤</t>
+  </si>
+  <si>
+    <t>ahrang1225@gmail.com</t>
+  </si>
+  <si>
+    <t>탁아랑</t>
+  </si>
+  <si>
+    <t>pinkyeon7@gmail.com</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>박채연</t>
+  </si>
+  <si>
+    <t>choag0830@naver.com</t>
+  </si>
+  <si>
+    <t>박초은</t>
+  </si>
+  <si>
+    <t>gmlfkr6241@naver.com</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>한희락</t>
+  </si>
+  <si>
+    <t>joyang4777@gmail.com</t>
+  </si>
+  <si>
+    <t>함현아</t>
+  </si>
+  <si>
+    <t>misunhong0707@gmail.com</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>홍미선</t>
+  </si>
+  <si>
+    <t>houng5011@naver.com</t>
+  </si>
+  <si>
+    <t>홍성원</t>
+  </si>
+  <si>
+    <t>creeper_a@naver.com</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>최대현</t>
+  </si>
+  <si>
+    <t>dong1star@gmail.com</t>
+  </si>
+  <si>
+    <t>최동일</t>
+  </si>
+  <si>
+    <t>soo060102@gmail.com</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>남궁수</t>
+  </si>
+  <si>
+    <t>sengyu0805@gmail.com</t>
+  </si>
+  <si>
+    <t>나선아</t>
+  </si>
+  <si>
+    <t>corki1234@naver.com</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>윤서웅</t>
+  </si>
+  <si>
+    <t>qufdldlrn@gmail.com</t>
+  </si>
+  <si>
+    <t>윤샛별</t>
+  </si>
+  <si>
+    <t>dkhong2003@gmail.com</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>홍다경</t>
+  </si>
+  <si>
+    <t>gyucheol0503@naver.com</t>
+  </si>
+  <si>
+    <t>홍규철</t>
+  </si>
+  <si>
+    <t>mjys9155@gmail.com</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>서민지</t>
+  </si>
+  <si>
+    <t>ming041230@gmail.com</t>
+  </si>
+  <si>
+    <t>koreavjr@naver.com</t>
+  </si>
+  <si>
+    <t>EK</t>
+  </si>
+  <si>
+    <t>박지성</t>
+  </si>
+  <si>
+    <t>gurybong@naver.com</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>최다원</t>
+  </si>
+  <si>
+    <t>a01028349689@gmail.com</t>
+  </si>
+  <si>
+    <t>최다인</t>
+  </si>
+  <si>
+    <t>0223wltn@naver.com</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>홍지수</t>
+  </si>
+  <si>
+    <t>leesamchi0511@gmail.com</t>
+  </si>
+  <si>
+    <t>홍지민</t>
+  </si>
+  <si>
+    <t>nari040812@naver.com</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>이나리</t>
+  </si>
+  <si>
+    <t>leenara633@gmail.com</t>
+  </si>
+  <si>
+    <t>이나라</t>
+  </si>
+  <si>
+    <t>yhh323@naver.com</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>유형호</t>
+  </si>
+  <si>
+    <t>anfytlrtk3@naver.com</t>
+  </si>
+  <si>
+    <t>윤가영</t>
+  </si>
+  <si>
+    <t>김헌덕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrud8755@naver.com</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>김민경</t>
+  </si>
+  <si>
+    <t>ss0001234@naver.com</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>김세은</t>
+  </si>
+  <si>
+    <t>minkyoung961@naver.com</t>
+  </si>
+  <si>
+    <t>dpdlvldzmfkd1218@naver.com</t>
+  </si>
+  <si>
+    <t>HZ</t>
+  </si>
+  <si>
+    <t>이다혜</t>
+  </si>
+  <si>
+    <t>sehyeon0330@naver.com</t>
+  </si>
+  <si>
+    <t>김세현</t>
+  </si>
+  <si>
+    <t>oepdwrtyy@gmail.com</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>강종현</t>
+  </si>
+  <si>
+    <t>rkdwndms112@naver.com</t>
+  </si>
+  <si>
+    <t>강주은</t>
+  </si>
+  <si>
+    <t>jenniferdy@naver.com</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>권도연</t>
+  </si>
+  <si>
+    <t>obbobb7@gmail.com</t>
+  </si>
+  <si>
+    <t>구재영</t>
+  </si>
+  <si>
+    <t>yujin31836@gmail.com</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>최유진</t>
+  </si>
+  <si>
+    <t>yoonbin0304@naver.com</t>
+  </si>
+  <si>
+    <t>최윤빈</t>
+  </si>
+  <si>
+    <t>narinsong3@gmail.com</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>송나린</t>
+  </si>
+  <si>
+    <t>sdw20050421@gmail.com</t>
+  </si>
+  <si>
+    <t>송도원</t>
+  </si>
+  <si>
+    <t>simje9907@gmail.com</t>
+  </si>
+  <si>
+    <t>심재민</t>
+  </si>
+  <si>
+    <t>wlsqhwlsqh21@naver.com</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>심진보</t>
+  </si>
+  <si>
+    <t>이기용</t>
+  </si>
+  <si>
+    <t>sshee718@gmail.com</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>권도운</t>
+  </si>
+  <si>
+    <t>sally200408@gmail.com</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>박경화</t>
+  </si>
+  <si>
+    <t>ran8410@naver.com</t>
+  </si>
+  <si>
+    <t>박경란</t>
+  </si>
+  <si>
+    <t>kingdom980201@gmail.com</t>
+  </si>
+  <si>
+    <t>DY</t>
+  </si>
+  <si>
+    <t>박성경</t>
+  </si>
+  <si>
+    <t>2468pp@naver.com</t>
+  </si>
+  <si>
+    <t>박성빈</t>
+  </si>
+  <si>
+    <t>marlboroe53@naver.com</t>
+  </si>
+  <si>
+    <t>dct0807@naver.com</t>
+  </si>
+  <si>
+    <t>이정민</t>
+  </si>
+  <si>
+    <t>jaehun081805@gmail.com</t>
+  </si>
+  <si>
+    <t>JF</t>
+  </si>
+  <si>
+    <t>이재훈</t>
+  </si>
+  <si>
+    <t>junhyeogjang@gmail.com</t>
+  </si>
+  <si>
+    <t>장준혁</t>
+  </si>
+  <si>
+    <t>hcheon27@gmail.com</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>천하윤</t>
+  </si>
+  <si>
+    <t>seventeen894@gmail.com</t>
+  </si>
+  <si>
+    <t>최가연</t>
+  </si>
+  <si>
+    <t>withhowon@gmail.com</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>서호원</t>
+  </si>
+  <si>
+    <t>joo061222@gmail.com</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>강민주</t>
+  </si>
+  <si>
+    <t>kmu2916@naver.com</t>
+  </si>
+  <si>
+    <t>강민욱</t>
+  </si>
+  <si>
+    <t>seohyemin2003@naver.com</t>
+  </si>
+  <si>
+    <t>서혜민</t>
+  </si>
+  <si>
+    <t>mire030503@gmail.com</t>
+  </si>
+  <si>
+    <t>OE</t>
+  </si>
+  <si>
+    <t>김원형</t>
+  </si>
+  <si>
+    <t>kimguswls6685@naver.com</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>ddoyeong0509@gmail.com</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>윤소영</t>
+  </si>
+  <si>
+    <t>yuntwo22@naver.com</t>
+  </si>
+  <si>
+    <t>윤세진</t>
+  </si>
+  <si>
+    <t>kkst1324@naver.com</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>구민영</t>
+  </si>
+  <si>
+    <t>bluelion-gbn9981@naver.com</t>
+  </si>
+  <si>
+    <t>구보늬</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>wkdgotqlc@gmail.com</t>
+  </si>
+  <si>
+    <t>장햇빛</t>
+  </si>
+  <si>
+    <t>0524psu@gmail.com</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>박상언</t>
+  </si>
+  <si>
+    <t>corsica2001@naver.com</t>
+  </si>
+  <si>
+    <t>박상우</t>
+  </si>
+  <si>
+    <t>riwon1226@gmail.com</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>김리원</t>
+  </si>
+  <si>
+    <t>bin_1014@naver.com</t>
+  </si>
+  <si>
+    <t>김명빈</t>
+  </si>
+  <si>
+    <t>minseok1937@gmail.com</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>김민석</t>
+  </si>
+  <si>
+    <t>tlqpfldkghfk@gmail.com</t>
+  </si>
+  <si>
+    <t>donghyun6652@gmail.com</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>한동현</t>
+  </si>
+  <si>
+    <t>donghunea@naver.com</t>
+  </si>
+  <si>
+    <t>한동훈</t>
+  </si>
+  <si>
+    <t>GC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -669,7 +1283,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -688,6 +1302,20 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -847,36 +1475,36 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -885,7 +1513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -912,6 +1540,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -972,9 +1603,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:O80">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O80">
-    <sortCondition ref="C2:C80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:O153">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O153">
+    <sortCondition ref="C2:C153"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
@@ -1194,15 +1825,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1261,22 +1892,22 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
-        <v>45617.019655358796</v>
+        <v>45615.935753287034</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="D2" s="8">
-        <v>20244120</v>
+        <v>20233908</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>212</v>
+        <v>102</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>19</v>
@@ -1285,10 +1916,10 @@
         <v>19</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>19</v>
@@ -1300,7 +1931,7 @@
         <v>19</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>19</v>
@@ -1308,19 +1939,19 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
-        <v>45615.935753287034</v>
+        <v>45615.937487592593</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D3" s="5">
-        <v>20233908</v>
+        <v>20221005</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>19</v>
@@ -1355,225 +1986,225 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
-        <v>45615.937487592593</v>
+        <v>45616.673791828704</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="D4" s="8">
-        <v>20221005</v>
+        <v>20243903</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>45616.673791828704</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="7">
+        <v>45616.674901018516</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="5">
-        <v>20243903</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>18</v>
+      <c r="D5" s="8">
+        <v>20246214</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>45616.674901018516</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="8">
-        <v>20246214</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="9" t="s">
+      <c r="A6" s="4">
+        <v>45618.925248587962</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="5">
+        <v>20243704</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>45615.750077187498</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="5">
-        <v>20205133</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="6" t="s">
+      <c r="A7" s="7">
+        <v>45618.925438460647</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" s="8">
+        <v>20202706</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
-        <v>45615.752134548609</v>
+        <v>45618.464232650462</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>66</v>
+        <v>277</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>118</v>
+        <v>278</v>
       </c>
       <c r="D8" s="8">
-        <v>20242924</v>
+        <v>20222606</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>65</v>
+        <v>279</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>19</v>
@@ -1582,39 +2213,39 @@
         <v>19</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>45614.608188784725</v>
+        <v>45618.493859259259</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>283</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="D9" s="5">
-        <v>20243210</v>
+        <v>20231706</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>19</v>
@@ -1632,315 +2263,315 @@
         <v>18</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
+        <v>45618.925554351852</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D10" s="8">
+        <v>20202915</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>45618.929244236111</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D11" s="5">
+        <v>20202406</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>45615.750077187498</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="8">
+        <v>20205133</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>45615.752134548609</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="5">
+        <v>20242924</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
+        <v>45614.608188784725</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8">
+        <v>20243210</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
         <v>45614.771141863428</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D15" s="5">
         <v>20243907</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
-        <v>45614.752641018524</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="8">
-        <v>20231506</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>45614.753727928241</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="5">
-        <v>20202708</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
-        <v>45616.883403402782</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="8">
-        <v>20246221</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <v>45616.883468067128</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="5">
-        <v>20232512</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
-        <v>45614.967209421295</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="8">
-        <v>20227024</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>18</v>
+      <c r="F15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>45614.967267685184</v>
+        <v>45614.752641018524</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D16" s="5">
-        <v>20241515</v>
+        <v>20231506</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>19</v>
@@ -1949,13 +2580,13 @@
         <v>19</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>19</v>
@@ -1966,19 +2597,19 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
-        <v>45615.865311261572</v>
+        <v>45614.753727928241</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D17" s="8">
-        <v>20182845</v>
+        <v>20202708</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>19</v>
@@ -1987,16 +2618,16 @@
         <v>18</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>18</v>
@@ -2005,236 +2636,236 @@
         <v>18</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
-        <v>45615.865521840278</v>
+        <v>45618.585899189813</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="D18" s="5">
-        <v>20203213</v>
+        <v>20203211</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
-        <v>45615.881445162042</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="5">
-        <v>20246715</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>18</v>
+      <c r="A19" s="7">
+        <v>45618.58727502315</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" s="8">
+        <v>20212609</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
-        <v>45615.931955451393</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="8">
-        <v>20232937</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>19</v>
+      <c r="A20" s="4">
+        <v>45616.883403402782</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="5">
+        <v>20246221</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
-        <v>45616.882777106483</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="5">
-        <v>20227040</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>19</v>
+      <c r="A21" s="7">
+        <v>45616.883468067128</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="8">
+        <v>20232512</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
-        <v>45616.888966666666</v>
+        <v>45614.967209421295</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="D22" s="8">
-        <v>20246230</v>
+        <v>20227024</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>19</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>19</v>
@@ -2243,33 +2874,33 @@
         <v>19</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
-        <v>45616.884539803243</v>
+        <v>45614.967267685184</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="D23" s="5">
-        <v>20242613</v>
+        <v>20241515</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>19</v>
@@ -2284,30 +2915,30 @@
         <v>19</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
-        <v>45616.548491863425</v>
+        <v>45615.865311261572</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8">
-        <v>20222933</v>
+        <v>20182845</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>19</v>
@@ -2316,10 +2947,10 @@
         <v>18</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>19</v>
@@ -2328,456 +2959,456 @@
         <v>19</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>18</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
-        <v>45616.548506643521</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="8">
-        <v>20246233</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>19</v>
+      <c r="A25" s="4">
+        <v>45615.865521840278</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="5">
+        <v>20203213</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
-        <v>45616.791696631946</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="5">
-        <v>20243711</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O26" s="6" t="s">
+      <c r="A26" s="7">
+        <v>45615.881445162042</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="8">
+        <v>20246715</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
-        <v>45616.792467511579</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="8">
-        <v>20243314</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>18</v>
+      <c r="A27" s="4">
+        <v>45615.931955451393</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="5">
+        <v>20232937</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
-        <v>45615.819160393519</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="5">
-        <v>20195285</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O28" s="6" t="s">
+      <c r="A28" s="7">
+        <v>45616.882777106483</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="8">
+        <v>20227040</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O28" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
-        <v>45615.889123622685</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="8">
-        <v>20214116</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O29" s="9" t="s">
+      <c r="A29" s="4">
+        <v>45616.888966666666</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="5">
+        <v>20246230</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O29" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
-        <v>45615.999937627319</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="5">
-        <v>20205167</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O30" s="6" t="s">
+      <c r="A30" s="7">
+        <v>45616.884539803243</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="8">
+        <v>20242613</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O30" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
-        <v>45616.000772013889</v>
+        <v>45617.402921921297</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="D31" s="8">
-        <v>20242320</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>109</v>
+        <v>20242314</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
-        <v>45616.902000636575</v>
+        <v>45616.548491863425</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="D32" s="5">
-        <v>20243618</v>
+        <v>20222933</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O32" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
-        <v>45616.902436030097</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" s="8">
-        <v>20232417</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O33" s="9" t="s">
+      <c r="A33" s="4">
+        <v>45616.548506643521</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="5">
+        <v>20246233</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7">
-        <v>45616.406241562501</v>
+        <v>45618.796841782409</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>119</v>
+        <v>344</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>120</v>
+        <v>345</v>
       </c>
       <c r="D34" s="8">
-        <v>20222960</v>
+        <v>20243801</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>121</v>
+        <v>346</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>19</v>
@@ -2786,54 +3417,54 @@
         <v>19</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>19</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>19</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>19</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
-        <v>45616.406684363421</v>
+        <v>45618.798392199074</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>122</v>
+        <v>347</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>120</v>
+        <v>345</v>
       </c>
       <c r="D35" s="5">
-        <v>20212418</v>
+        <v>20222902</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>123</v>
+        <v>348</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>19</v>
@@ -2845,506 +3476,506 @@
         <v>19</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
-        <v>45615.423838217597</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="5">
-        <v>20242528</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O36" s="6" t="s">
+      <c r="A36" s="7">
+        <v>45617.718129791669</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D36" s="8">
+        <v>20243710</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O36" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
-        <v>45615.426876851852</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="8">
-        <v>20205188</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O37" s="9" t="s">
-        <v>18</v>
+      <c r="A37" s="4">
+        <v>45617.718651145835</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="5">
+        <v>20245152</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
-        <v>45616.981916122684</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="5">
-        <v>20225175</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>19</v>
+      <c r="A38" s="7">
+        <v>45616.791696631946</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="8">
+        <v>20243711</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7">
-        <v>45616.989805300924</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="8">
-        <v>20243622</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O39" s="9" t="s">
-        <v>19</v>
+      <c r="A39" s="4">
+        <v>45616.792467511579</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="5">
+        <v>20243314</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
-        <v>45615.741004976851</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="5">
-        <v>20202335</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O40" s="6" t="s">
+      <c r="A40" s="7">
+        <v>45615.819160393519</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="8">
+        <v>20195285</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O40" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7">
-        <v>45615.7411459375</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="8">
-        <v>20182339</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O41" s="9" t="s">
+      <c r="A41" s="4">
+        <v>45615.889123622685</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="5">
+        <v>20214116</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O41" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
-        <v>45616.875425810184</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="5">
-        <v>20243821</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O42" s="6" t="s">
+      <c r="A42" s="7">
+        <v>45618.711903877316</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D42" s="8">
+        <v>20212818</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O42" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7">
-        <v>45616.879077384263</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="8">
-        <v>20246251</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O43" s="9" t="s">
+      <c r="A43" s="4">
+        <v>45618.712131516208</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D43" s="5">
+        <v>20203918</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O43" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
-        <v>45616.81204420139</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="5">
-        <v>20246264</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>19</v>
+      <c r="A44" s="7">
+        <v>45615.999937627319</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="8">
+        <v>20205167</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="7">
-        <v>45616.819194247684</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="8">
-        <v>20241220</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O45" s="9" t="s">
-        <v>18</v>
+      <c r="A45" s="4">
+        <v>45616.000772013889</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="5">
+        <v>20242320</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7">
-        <v>45615.833431956024</v>
+        <v>45618.855035972221</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>73</v>
+        <v>369</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>74</v>
+        <v>370</v>
       </c>
       <c r="D46" s="8">
-        <v>20242551</v>
+        <v>20243712</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>75</v>
+        <v>371</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>19</v>
@@ -3362,7 +3993,7 @@
         <v>18</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>18</v>
@@ -3376,31 +4007,31 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
-        <v>45615.838880636569</v>
+        <v>45618.856119027776</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>74</v>
+        <v>370</v>
       </c>
       <c r="D47" s="5">
-        <v>20243001</v>
+        <v>20202817</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>18</v>
@@ -3409,10 +4040,10 @@
         <v>18</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N47" s="5" t="s">
         <v>19</v>
@@ -3423,22 +4054,22 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
-        <v>45616.613601863428</v>
+        <v>45618.714256539351</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>134</v>
+        <v>323</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>135</v>
+        <v>324</v>
       </c>
       <c r="D48" s="8">
-        <v>20205226</v>
+        <v>20243917</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>136</v>
+        <v>325</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>19</v>
@@ -3453,7 +4084,7 @@
         <v>19</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>18</v>
@@ -3462,7 +4093,7 @@
         <v>18</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O48" s="9" t="s">
         <v>18</v>
@@ -3470,43 +4101,43 @@
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
-        <v>45616.701258506946</v>
+        <v>45618.714265879629</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>142</v>
+        <v>326</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>135</v>
+        <v>324</v>
       </c>
       <c r="D49" s="5">
-        <v>20245224</v>
+        <v>20193813</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>143</v>
+        <v>327</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>19</v>
@@ -3517,19 +4148,19 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7">
-        <v>45615.929272384259</v>
+        <v>45616.902000636575</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="D50" s="8">
-        <v>20225218</v>
+        <v>20243618</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>18</v>
@@ -3541,16 +4172,16 @@
         <v>19</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>18</v>
@@ -3559,262 +4190,262 @@
         <v>19</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
-        <v>45615.930448020838</v>
+        <v>45616.902436030097</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="D51" s="5">
-        <v>20242227</v>
+        <v>20232417</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O51" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="7">
-        <v>45616.943012534721</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="8">
-        <v>20242628</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O52" s="9" t="s">
+      <c r="A52" s="4">
+        <v>45617.896913993056</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D52" s="5">
+        <v>20212827</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O52" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
-        <v>45616.948279039352</v>
-      </c>
-      <c r="B53" s="5" t="s">
+      <c r="A53" s="7">
+        <v>45617.897924513891</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D53" s="5">
-        <v>20182346</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="C53" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D53" s="8">
+        <v>20244120</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O53" s="6" t="s">
+      <c r="F53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O53" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="7">
-        <v>45616.575660775459</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54" s="8">
-        <v>20182951</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O54" s="9" t="s">
+      <c r="A54" s="4">
+        <v>45617.52846296296</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="5">
+        <v>20227141</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O54" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
-        <v>45616.57576792824</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" s="5">
-        <v>20196523</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O55" s="6" t="s">
-        <v>19</v>
+      <c r="A55" s="7">
+        <v>45617.53343787037</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="8">
+        <v>20246239</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
-        <v>45615.770813078707</v>
+        <v>45616.406241562501</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="D56" s="5">
-        <v>20202235</v>
+        <v>20222960</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>19</v>
@@ -3823,10 +4454,10 @@
         <v>19</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>19</v>
@@ -3838,30 +4469,30 @@
         <v>19</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7">
-        <v>45615.772271249996</v>
+        <v>45616.406684363421</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="D57" s="8">
-        <v>20211630</v>
+        <v>20212418</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>19</v>
@@ -3870,10 +4501,10 @@
         <v>19</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>19</v>
@@ -3885,27 +4516,27 @@
         <v>19</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
-        <v>45616.045121076386</v>
+        <v>45617.840419722226</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="D58" s="5">
-        <v>20217151</v>
+        <v>20242525</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>18</v>
@@ -3917,13 +4548,13 @@
         <v>19</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L58" s="5" t="s">
         <v>18</v>
@@ -3935,74 +4566,74 @@
         <v>19</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7">
-        <v>45616.045321481477</v>
+        <v>45617.840647685181</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>113</v>
+        <v>249</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="D59" s="8">
-        <v>20243941</v>
+        <v>20241044</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L59" s="8" t="s">
         <v>19</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
-        <v>45614.897280266203</v>
+        <v>45618.799340555561</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>37</v>
+        <v>341</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>38</v>
+        <v>342</v>
       </c>
       <c r="D60" s="5">
-        <v>20243423</v>
+        <v>20246245</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>39</v>
+        <v>343</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>19</v>
@@ -4014,10 +4645,10 @@
         <v>19</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>19</v>
@@ -4026,7 +4657,7 @@
         <v>19</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O60" s="6" t="s">
         <v>19</v>
@@ -4034,28 +4665,28 @@
     </row>
     <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="7">
-        <v>45614.897524421292</v>
+        <v>45618.799939375</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>38</v>
+        <v>342</v>
       </c>
       <c r="D61" s="8">
-        <v>20242344</v>
+        <v>20232216</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I61" s="8" t="s">
         <v>18</v>
@@ -4064,10 +4695,10 @@
         <v>19</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>18</v>
@@ -4076,27 +4707,27 @@
         <v>19</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
-        <v>45616.911136620372</v>
+        <v>45615.423838217597</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="D62" s="5">
-        <v>20202564</v>
+        <v>20242528</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>19</v>
@@ -4105,10 +4736,10 @@
         <v>19</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>19</v>
@@ -4117,7 +4748,7 @@
         <v>19</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N62" s="5" t="s">
         <v>18</v>
@@ -4128,93 +4759,93 @@
     </row>
     <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7">
-        <v>45616.911155567126</v>
+        <v>45615.426876851852</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="D63" s="8">
-        <v>20241077</v>
+        <v>20205188</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
-        <v>45616.717855694442</v>
+        <v>45616.981916122684</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="D64" s="5">
-        <v>20192575</v>
+        <v>20225175</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M64" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O64" s="6" t="s">
         <v>19</v>
@@ -4222,19 +4853,19 @@
     </row>
     <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7">
-        <v>45616.718630891206</v>
+        <v>45616.989805300924</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="D65" s="8">
-        <v>20242347</v>
+        <v>20243622</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>18</v>
@@ -4243,13 +4874,13 @@
         <v>18</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I65" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>19</v>
@@ -4258,10 +4889,10 @@
         <v>19</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O65" s="9" t="s">
         <v>19</v>
@@ -4269,19 +4900,19 @@
     </row>
     <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
-        <v>45616.89598001157</v>
+        <v>45618.682173634261</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>185</v>
+        <v>304</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>186</v>
+        <v>305</v>
       </c>
       <c r="D66" s="5">
-        <v>20245246</v>
+        <v>20246248</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>187</v>
+        <v>306</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>18</v>
@@ -4290,45 +4921,45 @@
         <v>19</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N66" s="5" t="s">
         <v>18</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="7">
-        <v>45616.8961427662</v>
+        <v>45618.68492944444</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>188</v>
+        <v>307</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>186</v>
+        <v>305</v>
       </c>
       <c r="D67" s="8">
-        <v>20203425</v>
+        <v>20242418</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>189</v>
+        <v>308</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>18</v>
@@ -4340,7 +4971,7 @@
         <v>19</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J67" s="8" t="s">
         <v>18</v>
@@ -4349,339 +4980,339 @@
         <v>19</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>18</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O67" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="7">
-        <v>45614.694405011571</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="8">
-        <v>20203957</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K68" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N68" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O68" s="9" t="s">
+      <c r="A68" s="4">
+        <v>45615.741004976851</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="5">
+        <v>20202335</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O68" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4">
-        <v>45614.694972974539</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="5">
-        <v>20243426</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L69" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N69" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O69" s="6" t="s">
-        <v>18</v>
+      <c r="A69" s="7">
+        <v>45615.7411459375</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="8">
+        <v>20182339</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="7">
-        <v>45615.629095763885</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="8">
-        <v>20202849</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K70" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M70" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N70" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O70" s="9" t="s">
-        <v>18</v>
+      <c r="A70" s="4">
+        <v>45616.875425810184</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="5">
+        <v>20243821</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4">
-        <v>45615.629324282403</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="5">
-        <v>20202641</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L71" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M71" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N71" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O71" s="6" t="s">
-        <v>19</v>
+      <c r="A71" s="7">
+        <v>45616.879077384263</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" s="8">
+        <v>20246251</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="7">
-        <v>45616.946347650461</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D72" s="8">
-        <v>20235263</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K72" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L72" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M72" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N72" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O72" s="9" t="s">
+      <c r="A72" s="4">
+        <v>45618.690565717596</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D72" s="5">
+        <v>20242724</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O72" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
-        <v>45616.947736412039</v>
+        <v>45618.691034930554</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>206</v>
+        <v>311</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="D73" s="5">
-        <v>20241236</v>
+        <v>20242982</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>205</v>
+        <v>313</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L73" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N73" s="5" t="s">
         <v>19</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7">
-        <v>45616.821936793982</v>
+        <v>45618.423377569445</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>160</v>
+        <v>271</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>161</v>
+        <v>272</v>
       </c>
       <c r="D74" s="8">
-        <v>20246783</v>
+        <v>20184132</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>162</v>
+        <v>273</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I74" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>19</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N74" s="8" t="s">
         <v>18</v>
@@ -4692,25 +5323,25 @@
     </row>
     <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
-        <v>45616.822060277773</v>
+        <v>45618.423495682873</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>163</v>
+        <v>274</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>161</v>
+        <v>272</v>
       </c>
       <c r="D75" s="5">
-        <v>20222238</v>
+        <v>20243830</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>164</v>
+        <v>275</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>19</v>
@@ -4722,39 +5353,39 @@
         <v>18</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L75" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N75" s="5" t="s">
         <v>19</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="7">
-        <v>45614.777798564814</v>
+        <v>45617.724813043984</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="D76" s="8">
-        <v>20242356</v>
+        <v>20211523</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>19</v>
@@ -4766,39 +5397,39 @@
         <v>18</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>18</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O76" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
-        <v>45614.778372002314</v>
+        <v>45617.732145914357</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>35</v>
+        <v>242</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="D77" s="5">
-        <v>20242440</v>
+        <v>20243929</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>18</v>
@@ -4807,13 +5438,13 @@
         <v>19</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>18</v>
@@ -4833,22 +5464,22 @@
     </row>
     <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="7">
-        <v>45615.928003668982</v>
+        <v>45618.82828825232</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>91</v>
+        <v>356</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>89</v>
+        <v>357</v>
       </c>
       <c r="D78" s="8">
-        <v>20193010</v>
+        <v>20242424</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>92</v>
+        <v>358</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>19</v>
@@ -4857,126 +5488,3558 @@
         <v>18</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J78" s="8" t="s">
         <v>19</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O78" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
+        <v>45618.828381354164</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D79" s="5">
+        <v>20195206</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="4">
+        <v>45618.694107337964</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D80" s="5">
+        <v>20243933</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="7">
+        <v>45618.69478982639</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D81" s="8">
+        <v>20215199</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O81" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="4">
+        <v>45618.603008009261</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D82" s="5">
+        <v>20241003</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O82" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="7">
+        <v>45618.60390396991</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D83" s="8">
+        <v>20202501</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O83" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="4">
+        <v>45618.01175769676</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D84" s="5">
+        <v>20233000</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="7">
+        <v>45618.011965405094</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D85" s="8">
+        <v>20241065</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O85" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="4">
+        <v>45616.81204420139</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D86" s="5">
+        <v>20246264</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O86" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="7">
+        <v>45616.819194247684</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D87" s="8">
+        <v>20241220</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O87" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="4">
+        <v>45615.833431956024</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" s="5">
+        <v>20242551</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O88" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="7">
+        <v>45615.838880636569</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D89" s="8">
+        <v>20243001</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M89" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O89" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="4">
+        <v>45616.613601863428</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D90" s="5">
+        <v>20205226</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="7">
+        <v>45616.701258506946</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" s="8">
+        <v>20245224</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O91" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="4">
+        <v>45615.929272384259</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" s="5">
+        <v>20225218</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O92" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="7">
+        <v>45615.930448020838</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" s="8">
+        <v>20242227</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N93" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O93" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="4">
+        <v>45616.943012534721</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D94" s="5">
+        <v>20242628</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O94" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="7">
+        <v>45616.948279039352</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D95" s="8">
+        <v>20182346</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O95" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="4">
+        <v>45616.575660775459</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D96" s="5">
+        <v>20182951</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O96" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="7">
+        <v>45616.57576792824</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="8">
+        <v>20196523</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O97" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="4">
+        <v>45618.750079942125</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D98" s="5">
+        <v>20203019</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N98" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O98" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="4">
+        <v>45618.7503281713</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D99" s="5">
+        <v>20242736</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O99" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="7">
+        <v>45615.770813078707</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100" s="8">
+        <v>20202235</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L100" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M100" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N100" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O100" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="4">
+        <v>45615.772271249996</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D101" s="5">
+        <v>20211630</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M101" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N101" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="7">
+        <v>45616.045121076386</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" s="8">
+        <v>20217151</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L102" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M102" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N102" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O102" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="4">
+        <v>45616.045321481477</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" s="5">
+        <v>20243941</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N103" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O103" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="7">
+        <v>45614.897280266203</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" s="8">
+        <v>20243423</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L104" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M104" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N104" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O104" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="4">
+        <v>45614.897524421292</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" s="5">
+        <v>20242344</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M105" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N105" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O105" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="7">
+        <v>45616.911136620372</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D106" s="8">
+        <v>20202564</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L106" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M106" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N106" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O106" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="4">
+        <v>45616.911155567126</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D107" s="5">
+        <v>20241077</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O107" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="7">
+        <v>45616.717855694442</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D108" s="8">
+        <v>20192575</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J108" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L108" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M108" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N108" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O108" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="4">
+        <v>45616.718630891206</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" s="5">
+        <v>20242347</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O109" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="7">
+        <v>45618.843788124999</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D110" s="8">
+        <v>20193341</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J110" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L110" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M110" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N110" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O110" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="4">
+        <v>45618.846207256945</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D111" s="5">
+        <v>20246769</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M111" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O111" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="7">
+        <v>45616.89598001157</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D112" s="8">
+        <v>20245246</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J112" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K112" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L112" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M112" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N112" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O112" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="4">
+        <v>45616.8961427662</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D113" s="5">
+        <v>20203425</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M113" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N113" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O113" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="7">
+        <v>45614.694405011571</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="8">
+        <v>20203957</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J114" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K114" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L114" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M114" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N114" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O114" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="4">
+        <v>45614.694972974539</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="5">
+        <v>20243426</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M115" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O115" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="7">
+        <v>45615.629095763885</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D116" s="8">
+        <v>20202849</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K116" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M116" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N116" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O116" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="4">
+        <v>45615.629324282403</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D117" s="5">
+        <v>20202641</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M117" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N117" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O117" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="7">
+        <v>45618.786619305552</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D118" s="8">
+        <v>20246293</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J118" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L118" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M118" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N118" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O118" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="4">
+        <v>45618.788536157408</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D119" s="5">
+        <v>20246294</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L119" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M119" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N119" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O119" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="7">
+        <v>45617.91677225694</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D120" s="8">
+        <v>20227136</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O120" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="4">
+        <v>45617.917514039349</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D121" s="5">
+        <v>20242635</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O121" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="7">
+        <v>45617.701498530092</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D122" s="8">
+        <v>20194153</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J122" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K122" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L122" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M122" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N122" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O122" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="4">
+        <v>45617.703801493059</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D123" s="5">
+        <v>20211097</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L123" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N123" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O123" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="7">
+        <v>45616.946347650461</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D124" s="8">
+        <v>20235263</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L124" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M124" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N124" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O124" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="4">
+        <v>45616.947736412039</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D125" s="5">
+        <v>20241236</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L125" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M125" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N125" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O125" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="7">
+        <v>45616.821936793982</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D126" s="8">
+        <v>20246783</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K126" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L126" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M126" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N126" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O126" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="4">
+        <v>45616.822060277773</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D127" s="5">
+        <v>20222238</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L127" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M127" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N127" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O127" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="7">
+        <v>45614.777798564814</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="8">
+        <v>20242356</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J128" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K128" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L128" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M128" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N128" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O128" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="4">
+        <v>45614.778372002314</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="5">
+        <v>20242440</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L129" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M129" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N129" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O129" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="7">
+        <v>45618.663519224538</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D130" s="8">
+        <v>20243961</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K130" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L130" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M130" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N130" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O130" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="4">
+        <v>45618.664014560185</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D131" s="5">
+        <v>20242138</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L131" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M131" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N131" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O131" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="7">
+        <v>45617.431538622681</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D132" s="8">
+        <v>20201733</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J132" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K132" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L132" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M132" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N132" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O132" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="4">
+        <v>45617.433327939812</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D133" s="5">
+        <v>20242240</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L133" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M133" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N133" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O133" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="7">
+        <v>45615.928003668982</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D134" s="8">
+        <v>20193010</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J134" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K134" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L134" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M134" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N134" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O134" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="4">
         <v>45615.928124872684</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B135" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C135" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D135" s="5">
         <v>20244152</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E135" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J79" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L79" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M79" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N79" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O79" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="10">
-        <v>45616.89288086805</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D80" s="11">
-        <v>20243606</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J80" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K80" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L80" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M80" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N80" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O80" s="12" t="s">
-        <v>18</v>
+      <c r="F135" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J135" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K135" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L135" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M135" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N135" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O135" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="7">
+        <v>45618.932999131939</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D136" s="8">
+        <v>20246300</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J136" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K136" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L136" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M136" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N136" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O136" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="4">
+        <v>45618.962217858796</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D137" s="5">
+        <v>20205267</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J137" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K137" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L137" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M137" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N137" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O137" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="7">
+        <v>45617.593034618054</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D138" s="8">
+        <v>20246303</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H138" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J138" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K138" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L138" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M138" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N138" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O138" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="4">
+        <v>45617.624065810189</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D139" s="5">
+        <v>20243432</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J139" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L139" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M139" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N139" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O139" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="7">
+        <v>45617.785031006948</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D140" s="8">
+        <v>20246305</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K140" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L140" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M140" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N140" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O140" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="4">
+        <v>45617.785644166666</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D141" s="5">
+        <v>20243650</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J141" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L141" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M141" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N141" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O141" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="7">
+        <v>45617.666387650461</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D142" s="8">
+        <v>20246940</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J142" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K142" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L142" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M142" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N142" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O142" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="4">
+        <v>45617.666835393524</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D143" s="5">
+        <v>20243741</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I143" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J143" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L143" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M143" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N143" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O143" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="7">
+        <v>45617.963320300929</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D144" s="8">
+        <v>20243850</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J144" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K144" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L144" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M144" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N144" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O144" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="4">
+        <v>45617.965138969907</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D145" s="5">
+        <v>20243062</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J145" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L145" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M145" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N145" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O145" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="7">
+        <v>45618.812007256944</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D146" s="8">
+        <v>20222514</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J146" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K146" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L146" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M146" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N146" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O146" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="4">
+        <v>45618.812132280094</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D147" s="5">
+        <v>20215144</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I147" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J147" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L147" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M147" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N147" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O147" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="7">
+        <v>45618.837015925921</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D148" s="8">
+        <v>20201004</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H148" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J148" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K148" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L148" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M148" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N148" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O148" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="4">
+        <v>45618.837271655095</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D149" s="5">
+        <v>20243403</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J149" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K149" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L149" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M149" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N149" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O149" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="7">
+        <v>45618.639147824069</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D150" s="8">
+        <v>20246206</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H150" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I150" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J150" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K150" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L150" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M150" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N150" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O150" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="4">
+        <v>45618.639394907412</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D151" s="5">
+        <v>20193305</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J151" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K151" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L151" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M151" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N151" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O151" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="7">
+        <v>45618.708379293981</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D152" s="8">
+        <v>20243702</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H152" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J152" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K152" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L152" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M152" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N152" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O152" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="11">
+        <v>45618.716526759265</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D153" s="12">
+        <v>20203302</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G153" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H153" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J153" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K153" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L153" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M153" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N153" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O153" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/R/data/MW241118.xlsx
+++ b/R/data/MW241118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7DCB40-3FBB-E741-9F9C-F9DD6926EED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5F62F6-889D-3647-82AE-E0F778DB1AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="1520" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3749,8 +3749,8 @@
   <dimension ref="A1:O357"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C267" sqref="C267"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C362" sqref="C362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
